--- a/output_logistic_voc_table.xlsx
+++ b/output_logistic_voc_table.xlsx
@@ -488,7 +488,7 @@
         <v>0.2478593390499188</v>
       </c>
       <c r="D2" t="n">
-        <v>2.05649270115691e-06</v>
+        <v>2.056492701156905e-06</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
         <v>0.2301154862020117</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003576635413541241</v>
+        <v>0.003576635413541248</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -575,10 +575,10 @@
         <v>-0.5779870972631285</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2248096229864003</v>
+        <v>0.2248096229864002</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01014032995685698</v>
+        <v>0.01014032995685696</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -589,10 +589,10 @@
         <v>0.5610265225730694</v>
       </c>
       <c r="G5" t="n">
-        <v>0.361095086322663</v>
+        <v>0.3610950863226631</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8716561674538534</v>
+        <v>0.8716561674538533</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5246958793512592</v>
+        <v>-0.5246958793512591</v>
       </c>
       <c r="C6" t="n">
         <v>0.2298221297870235</v>
@@ -619,7 +619,7 @@
         <v>0.5917352959270571</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3771368146699794</v>
+        <v>0.3771368146699796</v>
       </c>
       <c r="H6" t="n">
         <v>0.9284446567548373</v>

--- a/output_logistic_voc_table.xlsx
+++ b/output_logistic_voc_table.xlsx
@@ -478,177 +478,165 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Intercept</t>
+          <t>001762-27-2&lt;br&gt;&lt;span style='font-size:smaller'&gt;diethyldimethylplumbane&lt;/span&gt;</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.176784610208013</v>
+        <v>-1.864285362608939</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2478593390499188</v>
+        <v>0.6933238970689278</v>
       </c>
       <c r="D2" t="n">
-        <v>2.056492701156905e-06</v>
+        <v>0.007168580467208378</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.243926926332555</v>
+        <v>0.1550069440709066</v>
       </c>
       <c r="G2" t="n">
-        <v>1.995670942177668</v>
+        <v>0.03982739842619181</v>
       </c>
       <c r="H2" t="n">
-        <v>5.272944392276742</v>
+        <v>0.6032820033356766</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>001762-27-2&lt;br&gt;&lt;span style='font-size:smaller'&gt;Diethyldimethylplumbane&lt;/span&gt;</t>
+          <t>Intercept</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.088709950605413</v>
+        <v>0.9791239768184468</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2810421771118717</v>
+        <v>0.4655359435894203</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001071376403169036</v>
+        <v>0.03544664234137789</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.3366505094815919</v>
+        <v>2.662123138570772</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1940668449352324</v>
+        <v>1.068946439460581</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5839924154589066</v>
+        <v>6.629798597289993</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1000132-10-9&lt;br&gt;&lt;span style='font-size:smaller'&gt;5,9-Dodecadien-2-one, 6,10-dimethyl-, (E,E)&lt;/span&gt;</t>
+          <t>1000401-12-0&lt;br&gt;&lt;span style='font-size:smaller'&gt;2,5-cyclohexadien-1-one, 2,6-bis(1,1-dimethylethyl)-4-hydroxy-4-methyl-&lt;/span&gt;</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6703888767083591</v>
+        <v>-0.5446317316507132</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2301154862020117</v>
+        <v>0.3947848536714565</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003576635413541248</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1677203352096722</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.5115096249257478</v>
+        <v>0.5800553600406002</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3258183603735618</v>
+        <v>0.2675603729481738</v>
       </c>
       <c r="H4" t="n">
-        <v>0.80303054773125</v>
+        <v>1.25752635565732</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>000109-52-4&lt;br&gt;&lt;span style='font-size:smaller'&gt;Pentanoic acid&lt;/span&gt;</t>
+          <t>019549-87-2&lt;br&gt;&lt;span style='font-size:smaller'&gt;2,4-Dimethyl-1-heptene&lt;/span&gt;</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5779870972631285</v>
+        <v>-0.382333806875028</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2248096229864002</v>
+        <v>0.4609742337128525</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01014032995685696</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.4068759203773512</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.5610265225730694</v>
+        <v>0.6822672696844253</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3610950863226631</v>
+        <v>0.2764173811689787</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8716561674538533</v>
+        <v>1.684006357755336</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1000401-12-0&lt;br&gt;&lt;span style='font-size:smaller'&gt;2,5-Cyclohexadien-1-one, tert-butylated&lt;/span&gt;</t>
+          <t>000109-52-4&lt;br&gt;&lt;span style='font-size:smaller'&gt;Pentanoic acid&lt;/span&gt;</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5246958793512591</v>
+        <v>-0.2684651426305072</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2298221297870235</v>
+        <v>0.5365811253559523</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02242730388876936</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.6168460028724494</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.5917352959270571</v>
+        <v>0.7645520726194696</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3771368146699796</v>
+        <v>0.2670914557513763</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9284446567548373</v>
+        <v>2.188538267172609</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>000074-97-5&lt;br&gt;&lt;span style='font-size:smaller'&gt;Bromochloromethane&lt;/span&gt;</t>
+          <t>063521-76-6&lt;br&gt;&lt;span style='font-size:smaller'&gt;Tridecanedial&lt;/span&gt;</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3905383113726308</v>
+        <v>0.06864347057661022</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2262907204106251</v>
+        <v>0.3921975995195186</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08437879833080962</v>
+        <v>0.861061821359727</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>0.6766925051635817</v>
+        <v>1.071054278703266</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4342789873648951</v>
+        <v>0.4965536105032165</v>
       </c>
       <c r="H7" t="n">
-        <v>1.054420683172062</v>
+        <v>2.310238499254941</v>
       </c>
     </row>
   </sheetData>

--- a/output_logistic_voc_table.xlsx
+++ b/output_logistic_voc_table.xlsx
@@ -1,37 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerstepaniak/Desktop/Jupyter Area/capstone-project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18EB19F-0D53-8845-A6D6-569246A3A495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1140" yWindow="760" windowWidth="33420" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+  <si>
+    <t>Log-Odds</t>
+  </si>
+  <si>
+    <t>Std. Error</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Significance</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>95% CI Lower</t>
+  </si>
+  <si>
+    <t>95% CI Upper</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>VOC CAS</t>
+  </si>
+  <si>
+    <t>VOC Name</t>
+  </si>
+  <si>
+    <t>diethyldimethylplumbane</t>
+  </si>
+  <si>
+    <t>001762-27-2</t>
+  </si>
+  <si>
+    <t>2,5-cyclohexadien-1-one, 2,6-bis(1,1-dimethylethyl)-4-hydroxy-4-methyl-</t>
+  </si>
+  <si>
+    <t>1000401-12-0</t>
+  </si>
+  <si>
+    <t>2,4-Dimethyl-1-heptene</t>
+  </si>
+  <si>
+    <t>019549-87-2</t>
+  </si>
+  <si>
+    <t>pentanoic acid</t>
+  </si>
+  <si>
+    <t>000109-52-4</t>
+  </si>
+  <si>
+    <t>Tridecanedial</t>
+  </si>
+  <si>
+    <t>063521-76-6</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +128,130 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79FC46CC-A6C5-8B46-8422-9A05D38A8215}" name="Table1" displayName="Table1" ref="A1:I7" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:I7" xr:uid="{79FC46CC-A6C5-8B46-8422-9A05D38A8215}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{8F64868F-40AC-1843-9CDD-4A38A1B58731}" name="VOC CAS"/>
+    <tableColumn id="2" xr3:uid="{9804F889-D4AF-8C44-8A18-A5CA815A42BF}" name="VOC Name" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{5BF7B077-F135-9943-959E-5B535FCD823B}" name="Log-Odds" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{AEE60039-2C16-5844-83E0-CE7B28A8DAE7}" name="Std. Error" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{6702AC5C-D140-FA4E-9D1F-3F5C25E46024}" name="p" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{BA61B700-C433-CB43-A778-29D0B8F9C8C2}" name="Significance"/>
+    <tableColumn id="7" xr3:uid="{90AA0F12-EE2B-EA40-AD4F-D85857F20A3C}" name="OR" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{DAA4364A-5338-2844-B41C-2325F26B71AE}" name="95% CI Lower" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{2A5CFBDF-B87A-2446-BA44-93A306EA6B5F}" name="95% CI Upper" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,226 +538,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>VOC</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Log-Odds</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Std. Error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Significance</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>95% CI Lower</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>95% CI Upper</t>
-        </is>
+    <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>001762-27-2&lt;br&gt;&lt;span style='font-size:smaller'&gt;diethyldimethylplumbane&lt;/span&gt;</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.864285362608939</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6933238970689278</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.007168580467208378</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1550069440709066</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.03982739842619181</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6032820033356766</v>
+    <row r="2" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-1.8642853626089391</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.69332389706892783</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7.1685804672083778E-3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.15500694407090659</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3.9827398426191811E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.60328200333567661</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9791239768184468</v>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.97912397681844676</v>
+      </c>
+      <c r="D3" s="3">
         <v>0.4655359435894203</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.03544664234137789</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3" s="3">
+        <v>3.5446642341377892E-2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4">
         <v>2.662123138570772</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" s="3">
         <v>1.068946439460581</v>
       </c>
-      <c r="H3" t="n">
-        <v>6.629798597289993</v>
+      <c r="I3" s="3">
+        <v>6.6297985972899927</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1000401-12-0&lt;br&gt;&lt;span style='font-size:smaller'&gt;2,5-cyclohexadien-1-one, 2,6-bis(1,1-dimethylethyl)-4-hydroxy-4-methyl-&lt;/span&gt;</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.5446317316507132</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3947848536714565</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1677203352096722</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>0.5800553600406002</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.2675603729481738</v>
-      </c>
-      <c r="H4" t="n">
+    <row r="4" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-0.54463173165071321</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.39478485367145649</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.16772033520967219</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.58005536004060021</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.26756037294817381</v>
+      </c>
+      <c r="I4" s="3">
         <v>1.25752635565732</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>019549-87-2&lt;br&gt;&lt;span style='font-size:smaller'&gt;2,4-Dimethyl-1-heptene&lt;/span&gt;</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.382333806875028</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4609742337128525</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.4068759203773512</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
+    <row r="5" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-0.38233380687502799</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.46097423371285251</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.40687592037735121</v>
+      </c>
+      <c r="G5" s="4">
         <v>0.6822672696844253</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.2764173811689787</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.684006357755336</v>
+      <c r="H5" s="3">
+        <v>0.27641738116897868</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.6840063577553359</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>000109-52-4&lt;br&gt;&lt;span style='font-size:smaller'&gt;Pentanoic acid&lt;/span&gt;</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.2684651426305072</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5365811253559523</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6168460028724494</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>0.7645520726194696</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.2670914557513763</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.188538267172609</v>
+    <row r="6" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-0.26846514263050719</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.53658112535595226</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.61684600287244939</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.76455207261946956</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.26709145575137633</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.1885382671726088</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>063521-76-6&lt;br&gt;&lt;span style='font-size:smaller'&gt;Tridecanedial&lt;/span&gt;</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.06864347057661022</v>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6.8643470576610216E-2</v>
+      </c>
+      <c r="D7" s="3">
         <v>0.3921975995195186</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.861061821359727</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
+      <c r="E7" s="3">
+        <v>0.86106182135972698</v>
+      </c>
+      <c r="G7" s="4">
         <v>1.071054278703266</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" s="3">
         <v>0.4965536105032165</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" s="3">
         <v>2.310238499254941</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>